--- a/Availability_data130524.xlsx
+++ b/Availability_data130524.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr updateLinks="always"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87CB439C-5D10-4AAF-9E4B-A1E10B882850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3A2371-C180-4393-9D43-BE010DC6426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,8 +442,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,12 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +581,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,897 +1758,897 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF6A47-9922-40E3-A5C5-3CD13C301FDA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>45394</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>45485</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15">
         <v>45394</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>45608</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="15">
         <v>45485</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15">
         <v>45608</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>45658</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
         <v>22</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>45748</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
         <v>13</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15">
         <v>45658</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>45870</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
         <v>24</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15">
         <v>45748</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>45962</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
         <v>24</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15">
         <v>45870</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
         <v>18</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15">
         <v>45962</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
         <v>24</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
         <v>14</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
         <v>24</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
         <v>22</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>45659</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
         <v>22</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>45779</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
         <v>24</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="15">
         <v>45659</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>45871</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
         <v>18</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="B23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="15">
         <v>45779</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>45993</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
         <v>24</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="B24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="15">
         <v>45871</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
         <v>22</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="B25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="15">
         <v>45993</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
         <v>13</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
         <v>20</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
         <v>16</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="15">
         <v>45660</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
         <v>22</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="15">
         <v>45780</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
         <v>17</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="B30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="15">
         <v>45660</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="15">
         <v>45872</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
         <v>20</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="19">
+      <c r="B31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="15">
         <v>45780</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="15">
         <v>45994</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
         <v>22</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="B32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="15">
         <v>45872</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
         <v>20</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="B33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="15">
         <v>45994</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
         <v>13</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
         <v>24</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
         <v>24</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="15">
         <v>45692</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
         <v>24</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="15">
         <v>45781</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
         <v>22</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="15">
         <v>45692</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="15">
         <v>45904</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
         <v>24</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="B40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="15">
         <v>45781</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="15">
         <v>45995</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
         <v>21</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="B41" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="15">
         <v>45904</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="B42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="15">
         <v>45995</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="16">
         <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="17" t="s">
         <v>113</v>
       </c>
     </row>
